--- a/evaluation/results/hybrid/autoencoder/isolation_forest/split_5/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/autoencoder/isolation_forest/split_5/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.5271535580524345</v>
+        <v>0.697565543071161</v>
       </c>
       <c r="C2">
-        <v>0.6593406593406593</v>
+        <v>0.6333754740834386</v>
       </c>
       <c r="D2">
-        <v>0.1123595505617977</v>
+        <v>0.9382022471910112</v>
       </c>
       <c r="E2">
-        <v>0.192</v>
+        <v>0.7562264150943396</v>
       </c>
       <c r="F2">
-        <v>0.1347103726986978</v>
+        <v>0.8558250768705159</v>
       </c>
       <c r="G2">
-        <v>0.1160627929469533</v>
+        <v>0.921151262286967</v>
       </c>
       <c r="H2">
-        <v>0.5271535580524345</v>
+        <v>0.793975928965198</v>
       </c>
       <c r="I2">
-        <v>60</v>
+        <v>501</v>
       </c>
       <c r="J2">
-        <v>31</v>
+        <v>290</v>
       </c>
       <c r="K2">
-        <v>503</v>
+        <v>244</v>
       </c>
       <c r="L2">
-        <v>474</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.5148413510747185</v>
+        <v>0.8808664259927798</v>
       </c>
       <c r="C2">
-        <v>0.9419475655430711</v>
+        <v>0.4569288389513109</v>
       </c>
       <c r="D2">
-        <v>0.6657842488418266</v>
+        <v>0.6017262638717632</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.6593406593406593</v>
+        <v>0.6333754740834386</v>
       </c>
       <c r="C3">
-        <v>0.1123595505617977</v>
+        <v>0.9382022471910112</v>
       </c>
       <c r="D3">
-        <v>0.192</v>
+        <v>0.7562264150943396</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.5271535580524345</v>
+        <v>0.697565543071161</v>
       </c>
       <c r="C4">
-        <v>0.5271535580524345</v>
+        <v>0.697565543071161</v>
       </c>
       <c r="D4">
-        <v>0.5271535580524345</v>
+        <v>0.697565543071161</v>
       </c>
       <c r="E4">
-        <v>0.5271535580524345</v>
+        <v>0.697565543071161</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.587091005207689</v>
+        <v>0.7571209500381092</v>
       </c>
       <c r="C5">
-        <v>0.5271535580524345</v>
+        <v>0.697565543071161</v>
       </c>
       <c r="D5">
-        <v>0.4288921244209133</v>
+        <v>0.6789763394830515</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.5870910052076889</v>
+        <v>0.7571209500381092</v>
       </c>
       <c r="C6">
-        <v>0.5271535580524345</v>
+        <v>0.697565543071161</v>
       </c>
       <c r="D6">
-        <v>0.4288921244209133</v>
+        <v>0.6789763394830514</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>503</v>
+        <v>244</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>474</v>
+        <v>33</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
